--- a/data/trans_orig/P32B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6693</v>
+        <v>5808</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006537845696120491</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02309378396401759</v>
+        <v>0.02004129979727367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7356</v>
+        <v>5895</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00771781351968784</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05743763425909595</v>
+        <v>0.04603373879256313</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>2883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7753</v>
+        <v>7732</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006899469004854433</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002206075913704309</v>
+        <v>0.002187485124850163</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01855442561830986</v>
+        <v>0.01850428682104326</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>287912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>283114</v>
+        <v>283999</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>289807</v>
@@ -824,7 +824,7 @@
         <v>0.9934621543038795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9769062160359823</v>
+        <v>0.9799587002027264</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>127076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>120708</v>
+        <v>122169</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>128064</v>
@@ -845,7 +845,7 @@
         <v>0.9922821864803122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9425623657409059</v>
+        <v>0.9539662612074368</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>414988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>410118</v>
+        <v>410139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>416949</v>
+        <v>416957</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9931005309951456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9814455743816902</v>
+        <v>0.9814957131789567</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9977939240862957</v>
+        <v>0.9978125148751499</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4844</v>
+        <v>4865</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004343306513919873</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02169963846956083</v>
+        <v>0.02179512313092198</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7274</v>
+        <v>7093</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0133773063596944</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04727342957289644</v>
+        <v>0.04610250462113526</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -1003,19 +1003,19 @@
         <v>3028</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8128</v>
+        <v>8234</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008029565805831902</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002549390924022962</v>
+        <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02155598472796523</v>
+        <v>0.02183643193158437</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>222242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>218367</v>
+        <v>218346</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>223211</v>
@@ -1041,7 +1041,7 @@
         <v>0.9956566934860801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.978300361530439</v>
+        <v>0.9782048768690783</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>151804</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>146588</v>
+        <v>146769</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>153862</v>
@@ -1062,7 +1062,7 @@
         <v>0.9866226936403056</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9527265704271053</v>
+        <v>0.9538974953788614</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>374045</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>368945</v>
+        <v>368839</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>376112</v>
+        <v>377073</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9919704341941681</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9784440152720348</v>
+        <v>0.9781635680684155</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.997450609075977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5650</v>
+        <v>6411</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005143421252461355</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01667670009963753</v>
+        <v>0.01892477446254837</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5523</v>
+        <v>6117</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004350184506246162</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0137887978369728</v>
+        <v>0.01527184596062468</v>
       </c>
     </row>
     <row r="11">
@@ -1241,7 +1241,7 @@
         <v>337032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>333124</v>
+        <v>332363</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>338774</v>
@@ -1250,7 +1250,7 @@
         <v>0.9948565787475386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9833232999003633</v>
+        <v>0.9810752255374521</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>398806</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>395025</v>
+        <v>394431</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>400548</v>
@@ -1284,7 +1284,7 @@
         <v>0.9956498154937539</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9862112021630274</v>
+        <v>0.9847281540393752</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1379,19 +1379,19 @@
         <v>8771</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3856</v>
+        <v>4140</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16382</v>
+        <v>18909</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01310024701984775</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005759474271348179</v>
+        <v>0.006183365141110396</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02446776267599741</v>
+        <v>0.02824138786190104</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1400,19 +1400,19 @@
         <v>3077</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>0</v>
+        <v>928</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8474</v>
+        <v>9149</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01599714279885224</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0</v>
+        <v>0.004825444864456211</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04405851614389913</v>
+        <v>0.04756954717637131</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1421,19 +1421,19 @@
         <v>11848</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6072</v>
+        <v>6025</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20255</v>
+        <v>20957</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0137466903166538</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007045190813918014</v>
+        <v>0.006990823257068349</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02350104788502054</v>
+        <v>0.02431574816591844</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>660768</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>653157</v>
+        <v>650630</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>665683</v>
+        <v>665399</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9868997529801522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9755322373240024</v>
+        <v>0.9717586121380989</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9942405257286517</v>
+        <v>0.9938166348588896</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>182</v>
@@ -1471,19 +1471,19 @@
         <v>189248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>183851</v>
+        <v>183176</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>192325</v>
+        <v>191397</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9840028572011478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9559414838561012</v>
+        <v>0.9524304528236288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>1</v>
+        <v>0.9951745551355438</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>836</v>
@@ -1492,19 +1492,19 @@
         <v>850016</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>841609</v>
+        <v>840907</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>855792</v>
+        <v>855839</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9862533096833462</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9764989521149794</v>
+        <v>0.9756842518340816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9929548091860819</v>
+        <v>0.9930091767429311</v>
       </c>
     </row>
     <row r="15">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4552</v>
+        <v>5279</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004220067233636711</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02116489805900429</v>
+        <v>0.02454533408491062</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6873</v>
+        <v>6692</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0156000591937941</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04895588283824287</v>
+        <v>0.04766706159699283</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1638,19 +1638,19 @@
         <v>3098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9810</v>
+        <v>10191</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008714592523945592</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002544206877750341</v>
+        <v>0.002577841286815494</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0275968741760734</v>
+        <v>0.02866857993942101</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>214172</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>210528</v>
+        <v>209801</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>215080</v>
@@ -1676,7 +1676,7 @@
         <v>0.9957799327663633</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9788351019409957</v>
+        <v>0.9754546659150887</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>138205</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133522</v>
+        <v>133703</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>140395</v>
@@ -1697,7 +1697,7 @@
         <v>0.9843999408062059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.951044117161757</v>
+        <v>0.9523329384030071</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1709,19 +1709,19 @@
         <v>352377</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>345665</v>
+        <v>345284</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>354571</v>
+        <v>354559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9912854074760544</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9724031258239259</v>
+        <v>0.9713314200605788</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9974557931222496</v>
+        <v>0.9974221587131845</v>
       </c>
     </row>
     <row r="18">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5913</v>
+        <v>6038</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007581341008405611</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04238257406501129</v>
+        <v>0.04328104736117445</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5912</v>
+        <v>5091</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004666027598061889</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02710879629622925</v>
+        <v>0.02334405286356143</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7226</v>
+        <v>6956</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005803349674342227</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02020534570019497</v>
+        <v>0.01945097162416332</v>
       </c>
     </row>
     <row r="20">
@@ -1884,7 +1884,7 @@
         <v>138453</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>133598</v>
+        <v>133473</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>139511</v>
@@ -1893,7 +1893,7 @@
         <v>0.9924186589915944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9576174259349882</v>
+        <v>0.9567189526388257</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>217082</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>212188</v>
+        <v>213009</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>218100</v>
@@ -1914,7 +1914,7 @@
         <v>0.9953339724019381</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9728912037037711</v>
+        <v>0.9766559471364386</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>355536</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>350385</v>
+        <v>350655</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>357611</v>
@@ -1935,7 +1935,7 @@
         <v>0.9941966503256577</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9797946542998051</v>
+        <v>0.9805490283758366</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2030,19 +2030,19 @@
         <v>15343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9072</v>
+        <v>8474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25447</v>
+        <v>24886</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008178966378731474</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004835956254068657</v>
+        <v>0.00451722757613237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01356481461222097</v>
+        <v>0.01326601063101822</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2051,19 +2051,19 @@
         <v>9331</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4325</v>
+        <v>5014</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17195</v>
+        <v>17449</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01043141985370172</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004835474993158494</v>
+        <v>0.005605348878450519</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01922248352337151</v>
+        <v>0.01950625053626756</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2072,19 +2072,19 @@
         <v>24674</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16095</v>
+        <v>16075</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36466</v>
+        <v>36616</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008906238429421861</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005809376458173628</v>
+        <v>0.005802173223656944</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01316240192612386</v>
+        <v>0.01321657625862039</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>1860579</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1850475</v>
+        <v>1851036</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1866850</v>
+        <v>1867448</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9918210336212685</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9864351853877787</v>
+        <v>0.9867339893689818</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9951640437459313</v>
+        <v>0.9954827724238676</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>865</v>
@@ -2122,19 +2122,19 @@
         <v>885189</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>877325</v>
+        <v>877071</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>890195</v>
+        <v>889506</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9895685801462982</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9807775164766285</v>
+        <v>0.9804937494637324</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9951645250068415</v>
+        <v>0.9943946511215495</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2691</v>
@@ -2143,19 +2143,19 @@
         <v>2745769</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2733977</v>
+        <v>2733827</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2754348</v>
+        <v>2754368</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9910937615705782</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9868375980738763</v>
+        <v>0.9867834237413797</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9941906235418264</v>
+        <v>0.9941978267763432</v>
       </c>
     </row>
     <row r="24">
@@ -2489,19 +2489,19 @@
         <v>8343</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3664</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15703</v>
+        <v>16171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02842740028069737</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01248667977516593</v>
+        <v>0.01485763709114339</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0535072094559088</v>
+        <v>0.05510196641999831</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>8342</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3725</v>
+        <v>3739</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16410</v>
+        <v>16855</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01884863106713548</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008416849249958547</v>
+        <v>0.008447164685159185</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0370758636089171</v>
+        <v>0.03808093110663956</v>
       </c>
     </row>
     <row r="5">
@@ -2552,19 +2552,19 @@
         <v>285124</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>277764</v>
+        <v>277296</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289803</v>
+        <v>289107</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9715725997193027</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9464927905440912</v>
+        <v>0.9448980335800017</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9875133202248341</v>
+        <v>0.9851423629088566</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>135</v>
@@ -2586,19 +2586,19 @@
         <v>434263</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>426195</v>
+        <v>425750</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>438880</v>
+        <v>438866</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9811513689328645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9629241363910829</v>
+        <v>0.9619190688933611</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9915831507500414</v>
+        <v>0.9915528353148408</v>
       </c>
     </row>
     <row r="6">
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6512</v>
+        <v>4934</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003878503353145761</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02569266710970642</v>
+        <v>0.0194681631218521</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7407</v>
+        <v>6807</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01518908229552953</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05197123544074655</v>
+        <v>0.04775990050948952</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -2732,19 +2732,19 @@
         <v>3148</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7638</v>
+        <v>8474</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007949265873329057</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00244682508714619</v>
+        <v>0.002449521076040904</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01928974918876834</v>
+        <v>0.02140032057438373</v>
       </c>
     </row>
     <row r="8">
@@ -2761,7 +2761,7 @@
         <v>252479</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>246950</v>
+        <v>248528</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>253462</v>
@@ -2770,7 +2770,7 @@
         <v>0.9961214966468542</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9743073328902928</v>
+        <v>0.9805318368781478</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2782,7 +2782,7 @@
         <v>140350</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>135108</v>
+        <v>135708</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>142515</v>
@@ -2791,7 +2791,7 @@
         <v>0.9848109177044705</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9480287645592533</v>
+        <v>0.9522400994905103</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2803,19 +2803,19 @@
         <v>392829</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>388339</v>
+        <v>387503</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>395008</v>
+        <v>395007</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.992050734126671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9807102508112318</v>
+        <v>0.9785996794256163</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9975531749128538</v>
+        <v>0.9975504789239591</v>
       </c>
     </row>
     <row r="9">
@@ -2907,19 +2907,19 @@
         <v>15425</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8244</v>
+        <v>8164</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25609</v>
+        <v>26809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03973147513239271</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02123533046773316</v>
+        <v>0.0210300516043898</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06596542145663453</v>
+        <v>0.06905674420747984</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2941,19 +2941,19 @@
         <v>15425</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8848</v>
+        <v>8006</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27887</v>
+        <v>26247</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03304871572055885</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01895790101774944</v>
+        <v>0.01715397876857041</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05975075126795052</v>
+        <v>0.05623585625803423</v>
       </c>
     </row>
     <row r="11">
@@ -2970,19 +2970,19 @@
         <v>372795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>362611</v>
+        <v>361411</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>379976</v>
+        <v>380056</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9602685248676073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9340345785433654</v>
+        <v>0.9309432557925199</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9787646695322668</v>
+        <v>0.9789699483956101</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -3004,19 +3004,19 @@
         <v>451297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>438835</v>
+        <v>440475</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>457874</v>
+        <v>458716</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9669512842794411</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9402492487320491</v>
+        <v>0.9437641437419658</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9810420989822505</v>
+        <v>0.9828460212314296</v>
       </c>
     </row>
     <row r="12">
@@ -3108,19 +3108,19 @@
         <v>22293</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14285</v>
+        <v>14472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33902</v>
+        <v>34814</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03358458627921546</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02151971552601581</v>
+        <v>0.02180226208827812</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05107397978537082</v>
+        <v>0.05244686946385969</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5425</v>
+        <v>4989</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004265983085499913</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02367612995682864</v>
+        <v>0.0217734275485706</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -3150,19 +3150,19 @@
         <v>23271</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14933</v>
+        <v>14872</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35477</v>
+        <v>36124</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02606066725517913</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01672289576700208</v>
+        <v>0.01665494078005165</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0397311064035841</v>
+        <v>0.04045558172507905</v>
       </c>
     </row>
     <row r="14">
@@ -3179,19 +3179,19 @@
         <v>641496</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>629887</v>
+        <v>628975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>649504</v>
+        <v>649317</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9664154137207845</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9489260202146296</v>
+        <v>0.9475531305361401</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9784802844739843</v>
+        <v>0.9781977379117216</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>208</v>
@@ -3200,7 +3200,7 @@
         <v>228174</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223727</v>
+        <v>224163</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>229152</v>
@@ -3209,7 +3209,7 @@
         <v>0.9957340169145001</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9763238700431719</v>
+        <v>0.9782265724514295</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3221,19 +3221,19 @@
         <v>869669</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>857463</v>
+        <v>856816</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>878007</v>
+        <v>878068</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9739393327448209</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9602688935964159</v>
+        <v>0.9595444182749209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.983277104232998</v>
+        <v>0.9833450592199484</v>
       </c>
     </row>
     <row r="15">
@@ -3325,19 +3325,19 @@
         <v>4548</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1773</v>
+        <v>1626</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10101</v>
+        <v>9445</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.014953059678831</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0058299109488447</v>
+        <v>0.005345994419948417</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03321455554407937</v>
+        <v>0.03105520276742577</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7385</v>
+        <v>6798</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01151299681615524</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03989512720065864</v>
+        <v>0.03672702235822495</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3367,19 +3367,19 @@
         <v>6679</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2998</v>
+        <v>2764</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13857</v>
+        <v>12856</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01365146375821373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006127090946170642</v>
+        <v>0.005650602922992565</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0283249491158645</v>
+        <v>0.02627776388671351</v>
       </c>
     </row>
     <row r="17">
@@ -3396,19 +3396,19 @@
         <v>299573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>294020</v>
+        <v>294676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>302348</v>
+        <v>302495</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.985046940321169</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9667854444559206</v>
+        <v>0.9689447972325742</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9941700890511553</v>
+        <v>0.9946540055800516</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>167</v>
@@ -3417,7 +3417,7 @@
         <v>182975</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177721</v>
+        <v>178308</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>185106</v>
@@ -3426,7 +3426,7 @@
         <v>0.9884870031838447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9601048727993408</v>
+        <v>0.9632729776417759</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3438,19 +3438,19 @@
         <v>482548</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>475370</v>
+        <v>476371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>486229</v>
+        <v>486463</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9863485362417863</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9716750508841353</v>
+        <v>0.9737222361132866</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9938729090538293</v>
+        <v>0.9943493970770074</v>
       </c>
     </row>
     <row r="18">
@@ -3542,19 +3542,19 @@
         <v>6871</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2919</v>
+        <v>2976</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12943</v>
+        <v>12986</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04970047388286816</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02111438715874426</v>
+        <v>0.02152636205695367</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09362224470578268</v>
+        <v>0.09393177072676819</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7788</v>
+        <v>5930</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007342044319470046</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02957730471960234</v>
+        <v>0.02252035304201398</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -3584,19 +3584,19 @@
         <v>8804</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4812</v>
+        <v>3945</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16708</v>
+        <v>15683</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02192536202681148</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0119826730306928</v>
+        <v>0.009824415489622162</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04160871209114026</v>
+        <v>0.03905612734213522</v>
       </c>
     </row>
     <row r="20">
@@ -3613,19 +3613,19 @@
         <v>131374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>125302</v>
+        <v>125259</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>135326</v>
+        <v>135269</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9502995261171319</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9063777552942174</v>
+        <v>0.9060682292732318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9788856128412557</v>
+        <v>0.9784736379430463</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>246</v>
@@ -3634,7 +3634,7 @@
         <v>261367</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>255512</v>
+        <v>257370</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>263300</v>
@@ -3643,7 +3643,7 @@
         <v>0.9926579556805299</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9704226952803977</v>
+        <v>0.9774796469579861</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3655,19 +3655,19 @@
         <v>392741</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>384837</v>
+        <v>385862</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>396733</v>
+        <v>397600</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9780746379731885</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9583912879088599</v>
+        <v>0.9609438726578649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9880173269693072</v>
+        <v>0.9901755845103778</v>
       </c>
     </row>
     <row r="21">
@@ -3759,19 +3759,19 @@
         <v>58462</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45099</v>
+        <v>43444</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77810</v>
+        <v>76124</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02863932961902231</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02209337191816537</v>
+        <v>0.02128269257856233</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03811765503955823</v>
+        <v>0.03729173007851291</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -3780,19 +3780,19 @@
         <v>7207</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3034</v>
+        <v>3179</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14360</v>
+        <v>14254</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006878331480437501</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002895763141417199</v>
+        <v>0.003034297693748506</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01370602835064013</v>
+        <v>0.01360532414638729</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -3801,19 +3801,19 @@
         <v>65668</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50557</v>
+        <v>50341</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>83534</v>
+        <v>83948</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02125857664280091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01636654567760207</v>
+        <v>0.01629680013121642</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02704221776738699</v>
+        <v>0.02717638287928217</v>
       </c>
     </row>
     <row r="23">
@@ -3830,19 +3830,19 @@
         <v>1982842</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1963494</v>
+        <v>1965180</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1996205</v>
+        <v>1997860</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9713606703809777</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9618823449604423</v>
+        <v>0.9627082699214873</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9779066280818346</v>
+        <v>0.9787173074214378</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>955</v>
@@ -3851,19 +3851,19 @@
         <v>1040505</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1033352</v>
+        <v>1033458</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1044678</v>
+        <v>1044533</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9931216685195625</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9862939716493599</v>
+        <v>0.986394675853613</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9971042368585828</v>
+        <v>0.9969657023062516</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2820</v>
@@ -3872,19 +3872,19 @@
         <v>3023348</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3005482</v>
+        <v>3005068</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3038459</v>
+        <v>3038675</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.978741423357199</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.972957782232613</v>
+        <v>0.972823617120718</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9836334543223979</v>
+        <v>0.9837031998687837</v>
       </c>
     </row>
     <row r="24">
@@ -4218,19 +4218,19 @@
         <v>7010</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2961</v>
+        <v>2109</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14588</v>
+        <v>14938</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02427591049738337</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01025390251751206</v>
+        <v>0.00730446273793898</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05051638308708874</v>
+        <v>0.05172996964834146</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6442</v>
+        <v>4647</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005991140051545102</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04184921348834797</v>
+        <v>0.03018985679590216</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4260,19 +4260,19 @@
         <v>7933</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3045</v>
+        <v>3635</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16588</v>
+        <v>16698</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01791798796270242</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006876978847290255</v>
+        <v>0.008210627047978961</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03746771269537958</v>
+        <v>0.0377164545003483</v>
       </c>
     </row>
     <row r="5">
@@ -4289,19 +4289,19 @@
         <v>281768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274190</v>
+        <v>273840</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285817</v>
+        <v>286669</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9757240895026166</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9494836169129128</v>
+        <v>0.9482700303516605</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9897460974824879</v>
+        <v>0.9926955372620613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -4310,7 +4310,7 @@
         <v>153019</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147499</v>
+        <v>149294</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>153941</v>
@@ -4319,7 +4319,7 @@
         <v>0.9940088599484549</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9581507865116483</v>
+        <v>0.9698101432040981</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4331,19 +4331,19 @@
         <v>434785</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>426130</v>
+        <v>426020</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>439673</v>
+        <v>439083</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9820820120372976</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9625322873046204</v>
+        <v>0.9622835454996519</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9931230211527098</v>
+        <v>0.9917893729520236</v>
       </c>
     </row>
     <row r="6">
@@ -4435,19 +4435,19 @@
         <v>3871</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1010</v>
+        <v>958</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9628</v>
+        <v>9575</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01619601634918317</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004227671554348284</v>
+        <v>0.004009326048072911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04028251330654448</v>
+        <v>0.04006169190404981</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6703</v>
+        <v>5664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005809769199188549</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0350188496971379</v>
+        <v>0.0295873811060746</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -4477,19 +4477,19 @@
         <v>4983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1847</v>
+        <v>1874</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10298</v>
+        <v>11093</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01157705830399333</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004290231602983244</v>
+        <v>0.004353984080627663</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02392421375208391</v>
+        <v>0.02577135470217707</v>
       </c>
     </row>
     <row r="8">
@@ -4506,19 +4506,19 @@
         <v>235140</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>229383</v>
+        <v>229436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>238001</v>
+        <v>238053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9838039836508168</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9597174866934556</v>
+        <v>0.9599383080959509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9957723284456521</v>
+        <v>0.9959906739519271</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>178</v>
@@ -4527,7 +4527,7 @@
         <v>190309</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>184718</v>
+        <v>185757</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>191421</v>
@@ -4536,7 +4536,7 @@
         <v>0.9941902308008115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9649811503028621</v>
+        <v>0.9704126188939254</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4548,19 +4548,19 @@
         <v>425449</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>420134</v>
+        <v>419339</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>428585</v>
+        <v>428558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9884229416960066</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9760757862479162</v>
+        <v>0.9742286452978229</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9957097683970167</v>
+        <v>0.9956460159193723</v>
       </c>
     </row>
     <row r="9">
@@ -4652,19 +4652,19 @@
         <v>6080</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2122</v>
+        <v>2169</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12504</v>
+        <v>12834</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0183417739525398</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006402435864890091</v>
+        <v>0.006544430386629736</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03771995949755744</v>
+        <v>0.03871361479297611</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6575</v>
+        <v>6532</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03836614972297766</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1195728000726193</v>
+        <v>0.1187821241778922</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -4694,19 +4694,19 @@
         <v>8190</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3970</v>
+        <v>3167</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15253</v>
+        <v>15783</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02119080883927511</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01027236478042602</v>
+        <v>0.008194484757170948</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03946534450990172</v>
+        <v>0.04083630826150451</v>
       </c>
     </row>
     <row r="11">
@@ -4723,19 +4723,19 @@
         <v>325419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>318995</v>
+        <v>318665</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>329377</v>
+        <v>329330</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9816582260474602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9622800405024426</v>
+        <v>0.9612863852070236</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9935975641351099</v>
+        <v>0.9934555696133702</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -4744,7 +4744,7 @@
         <v>52879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48414</v>
+        <v>48457</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>54989</v>
@@ -4753,7 +4753,7 @@
         <v>0.9616338502770223</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8804271999273803</v>
+        <v>0.8812178758221081</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4765,19 +4765,19 @@
         <v>378298</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>371235</v>
+        <v>370705</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>382518</v>
+        <v>383321</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9788091911607248</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9605346554900982</v>
+        <v>0.9591636917384955</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.989727635219574</v>
+        <v>0.991805515242829</v>
       </c>
     </row>
     <row r="12">
@@ -4869,19 +4869,19 @@
         <v>15447</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8496</v>
+        <v>7704</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25392</v>
+        <v>24772</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0234476255071425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01289551716431684</v>
+        <v>0.0116933473013582</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03854298041204559</v>
+        <v>0.03760207203743527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4890,19 +4890,19 @@
         <v>3782</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>922</v>
+        <v>946</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8724</v>
+        <v>9567</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01270679543604878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003096703463692533</v>
+        <v>0.003177088522494713</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02930753315205304</v>
+        <v>0.03214038866165914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -4911,19 +4911,19 @@
         <v>19229</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11021</v>
+        <v>11752</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29754</v>
+        <v>30906</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02010500408386943</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01152246246923758</v>
+        <v>0.01228660639687237</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03110917448141485</v>
+        <v>0.03231277446783111</v>
       </c>
     </row>
     <row r="14">
@@ -4940,19 +4940,19 @@
         <v>643351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>633406</v>
+        <v>634026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>650302</v>
+        <v>651094</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9765523744928575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9614570195879544</v>
+        <v>0.9623979279625643</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9871044828356831</v>
+        <v>0.9883066526986413</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>287</v>
@@ -4961,19 +4961,19 @@
         <v>293873</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288931</v>
+        <v>288088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>296733</v>
+        <v>296709</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9872932045639512</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9706924668479469</v>
+        <v>0.9678596113383409</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9969032965363075</v>
+        <v>0.9968229114775053</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>903</v>
@@ -4982,19 +4982,19 @@
         <v>937224</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>926699</v>
+        <v>925547</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>945432</v>
+        <v>944701</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9798949959161306</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9688908255185854</v>
+        <v>0.9676872255321692</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9884775375307628</v>
+        <v>0.9877133936031277</v>
       </c>
     </row>
     <row r="15">
@@ -5086,19 +5086,19 @@
         <v>6083</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2271</v>
+        <v>2605</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12704</v>
+        <v>12928</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01921964949472672</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007175093905999244</v>
+        <v>0.008231593912863744</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04014174052982444</v>
+        <v>0.04084850168655155</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5120,19 +5120,19 @@
         <v>6083</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12592</v>
+        <v>13193</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01198773155452293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005234932640168848</v>
+        <v>0.004928823459219117</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02481699641287201</v>
+        <v>0.02600130848089685</v>
       </c>
     </row>
     <row r="17">
@@ -5149,19 +5149,19 @@
         <v>310393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>303772</v>
+        <v>303548</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>314205</v>
+        <v>313871</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9807803505052732</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9598582594701759</v>
+        <v>0.9591514983134484</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9928249060940009</v>
+        <v>0.9917684060871362</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -5183,19 +5183,19 @@
         <v>501316</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>494807</v>
+        <v>494206</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>504743</v>
+        <v>504898</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9880122684454771</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.975183003587128</v>
+        <v>0.9739986915191031</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9947650673598312</v>
+        <v>0.9950711765407809</v>
       </c>
     </row>
     <row r="18">
@@ -5287,19 +5287,19 @@
         <v>3743</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9334</v>
+        <v>9313</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02310373424306474</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005905167661277155</v>
+        <v>0.005866964412140174</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05760738628643899</v>
+        <v>0.05747957812435942</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5308,19 +5308,19 @@
         <v>3830</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8714</v>
+        <v>9599</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01514460986149075</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003705480597718219</v>
+        <v>0.003721614729892737</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03446002701439506</v>
+        <v>0.03795761887678636</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -5329,19 +5329,19 @@
         <v>7573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2932</v>
+        <v>3630</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14259</v>
+        <v>14233</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01825275046453854</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007067544202889649</v>
+        <v>0.008748248493952589</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03436567995140947</v>
+        <v>0.03430325953276188</v>
       </c>
     </row>
     <row r="20">
@@ -5358,19 +5358,19 @@
         <v>158285</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>152694</v>
+        <v>152715</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161071</v>
+        <v>161077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9768962657569352</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.942392613713561</v>
+        <v>0.9425204218756406</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9940948323387229</v>
+        <v>0.9941330355878598</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>239</v>
@@ -5379,19 +5379,19 @@
         <v>249053</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>244169</v>
+        <v>243284</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>251946</v>
+        <v>251942</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9848553901385092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9655399729856049</v>
+        <v>0.9620423811232136</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9962945194022818</v>
+        <v>0.9962783852701073</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>391</v>
@@ -5400,19 +5400,19 @@
         <v>407338</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>400652</v>
+        <v>400678</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>411979</v>
+        <v>411281</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9817472495354614</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9656343200485905</v>
+        <v>0.9656967404672381</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9929324557971103</v>
+        <v>0.9912517515060474</v>
       </c>
     </row>
     <row r="21">
@@ -5504,19 +5504,19 @@
         <v>42235</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30652</v>
+        <v>30691</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57035</v>
+        <v>58055</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02115352311856427</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01535206944544666</v>
+        <v>0.0153719642280666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02856598041582465</v>
+        <v>0.02907686562931359</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -5525,19 +5525,19 @@
         <v>11756</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6527</v>
+        <v>6337</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19824</v>
+        <v>19374</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01029605963814608</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005716244320345783</v>
+        <v>0.005549575817139751</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01736184190584366</v>
+        <v>0.01696744259224608</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -5546,19 +5546,19 @@
         <v>53991</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40274</v>
+        <v>40968</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70594</v>
+        <v>70285</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01720336785838712</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01283278271671266</v>
+        <v>0.01305364064173255</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02249367472306321</v>
+        <v>0.02239517288847278</v>
       </c>
     </row>
     <row r="23">
@@ -5575,19 +5575,19 @@
         <v>1954354</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1939554</v>
+        <v>1938534</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1965937</v>
+        <v>1965898</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9788464768814358</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9714340195841754</v>
+        <v>0.9709231343706868</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9846479305545536</v>
+        <v>0.9846280357719335</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1079</v>
@@ -5596,19 +5596,19 @@
         <v>1130055</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1121987</v>
+        <v>1122437</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1135284</v>
+        <v>1135474</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9897039403618539</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9826381580941563</v>
+        <v>0.983032557407754</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9942837556796542</v>
+        <v>0.9944504241828603</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2930</v>
@@ -5617,19 +5617,19 @@
         <v>3084409</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3067806</v>
+        <v>3068115</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3098126</v>
+        <v>3097432</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9827966321416128</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9775063252769371</v>
+        <v>0.9776048271115272</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9871672172832883</v>
+        <v>0.9869463593582678</v>
       </c>
     </row>
     <row r="24">
@@ -5963,19 +5963,19 @@
         <v>9065</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4020</v>
+        <v>4051</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20276</v>
+        <v>19544</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02997652788160378</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01329431530242574</v>
+        <v>0.0133953698165826</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06705154395191588</v>
+        <v>0.06463101416703754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -5984,19 +5984,19 @@
         <v>2005</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5911</v>
+        <v>5229</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01143061856371784</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003086142822030672</v>
+        <v>0.003061482691030938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03369556335536389</v>
+        <v>0.02981110453917711</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -6005,19 +6005,19 @@
         <v>11070</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5568</v>
+        <v>5314</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22458</v>
+        <v>23123</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02316793741711084</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01165311387229073</v>
+        <v>0.01112136152542386</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04700184537694573</v>
+        <v>0.04839288882652843</v>
       </c>
     </row>
     <row r="5">
@@ -6034,19 +6034,19 @@
         <v>293330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>282119</v>
+        <v>282851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>298375</v>
+        <v>298344</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9700234721183961</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9329484560480842</v>
+        <v>0.9353689858329626</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9867056846975742</v>
+        <v>0.9866046301834173</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>243</v>
@@ -6055,19 +6055,19 @@
         <v>173409</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>169503</v>
+        <v>170185</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174873</v>
+        <v>174877</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9885693814362823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9663044366446361</v>
+        <v>0.9701888954608232</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9969138571779694</v>
+        <v>0.996938517308969</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>538</v>
@@ -6076,19 +6076,19 @@
         <v>466739</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>455351</v>
+        <v>454686</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>472241</v>
+        <v>472495</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.976832062582889</v>
+        <v>0.9768320625828891</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9529981546230544</v>
+        <v>0.9516071111734726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9883468861277093</v>
+        <v>0.9888786384745761</v>
       </c>
     </row>
     <row r="6">
@@ -6183,16 +6183,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5907</v>
+        <v>6004</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.007251692803614044</v>
+        <v>0.007251692803614043</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0262876451226349</v>
+        <v>0.02672078274730546</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -6201,19 +6201,19 @@
         <v>4127</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1471</v>
+        <v>1502</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8867</v>
+        <v>8533</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0285907478772076</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01019109111140848</v>
+        <v>0.01040612878750512</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0614343612193661</v>
+        <v>0.05912127891538193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -6222,19 +6222,19 @@
         <v>5756</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2815</v>
+        <v>2657</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11745</v>
+        <v>11530</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01559800261095468</v>
+        <v>0.01559800261095467</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007629191821306713</v>
+        <v>0.007199306664436895</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03182565445738621</v>
+        <v>0.03124343642122254</v>
       </c>
     </row>
     <row r="8">
@@ -6251,7 +6251,7 @@
         <v>223062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>218784</v>
+        <v>218687</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>224691</v>
@@ -6260,7 +6260,7 @@
         <v>0.9927483071963861</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.973712354877365</v>
+        <v>0.9732792172526946</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6272,19 +6272,19 @@
         <v>140211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>135471</v>
+        <v>135805</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>142867</v>
+        <v>142836</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9714092521227922</v>
+        <v>0.9714092521227924</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9385656387806338</v>
+        <v>0.9408787210846196</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9898089088885915</v>
+        <v>0.9895938712124949</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>423</v>
@@ -6293,19 +6293,19 @@
         <v>363273</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>357284</v>
+        <v>357499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>366214</v>
+        <v>366372</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9844019973890453</v>
+        <v>0.9844019973890452</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9681743455426134</v>
+        <v>0.9687565635787772</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9923708081786934</v>
+        <v>0.992800693335563</v>
       </c>
     </row>
     <row r="9">
@@ -6397,19 +6397,19 @@
         <v>6262</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2228</v>
+        <v>2292</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15452</v>
+        <v>14116</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02745104189891839</v>
+        <v>0.02745104189891838</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009765462970448405</v>
+        <v>0.01004920354227389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06774170453925553</v>
+        <v>0.06188176656776649</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -6431,19 +6431,19 @@
         <v>6262</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1684</v>
+        <v>1714</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15362</v>
+        <v>14960</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02279733435514258</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006130183050792765</v>
+        <v>0.006240716369856756</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05592892608920283</v>
+        <v>0.05446572562298354</v>
       </c>
     </row>
     <row r="11">
@@ -6460,19 +6460,19 @@
         <v>221847</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>212657</v>
+        <v>213993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225881</v>
+        <v>225817</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9725489581010817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9322582954607449</v>
+        <v>0.9381182334322337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9902345370295517</v>
+        <v>0.9899507964577261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -6494,19 +6494,19 @@
         <v>268412</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>259312</v>
+        <v>259714</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>272990</v>
+        <v>272960</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9772026656448575</v>
+        <v>0.9772026656448576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9440710739107971</v>
+        <v>0.9455342743770164</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9938698169492073</v>
+        <v>0.9937592836301431</v>
       </c>
     </row>
     <row r="12">
@@ -6598,19 +6598,19 @@
         <v>10311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4883</v>
+        <v>5367</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18735</v>
+        <v>18679</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01899206850698769</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008994993272712236</v>
+        <v>0.009886852967347272</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03451041127311846</v>
+        <v>0.03440661314592234</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -6619,19 +6619,19 @@
         <v>4167</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12444</v>
+        <v>13474</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01814664372900633</v>
+        <v>0.01814664372900632</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004609090907404977</v>
+        <v>0.004525462348859095</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05418562399434985</v>
+        <v>0.05867270032774395</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -6640,19 +6640,19 @@
         <v>14478</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8205</v>
+        <v>8306</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25473</v>
+        <v>25965</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01874075127767016</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01062108506610361</v>
+        <v>0.01075089085939161</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03297303348694115</v>
+        <v>0.03361005931754158</v>
       </c>
     </row>
     <row r="14">
@@ -6669,19 +6669,19 @@
         <v>532580</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>524156</v>
+        <v>524212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>538008</v>
+        <v>537524</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9810079314930124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9654895887268816</v>
+        <v>0.9655933868540771</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9910050067272878</v>
+        <v>0.9901131470326526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>294</v>
@@ -6690,19 +6690,19 @@
         <v>225485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>217208</v>
+        <v>216178</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>228594</v>
+        <v>228613</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9818533562709938</v>
+        <v>0.9818533562709937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9458143760056501</v>
+        <v>0.941327299672256</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.995390909092595</v>
+        <v>0.9954745376511409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>805</v>
@@ -6711,19 +6711,19 @@
         <v>758065</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>747070</v>
+        <v>746578</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>764338</v>
+        <v>764237</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9812592487223296</v>
+        <v>0.9812592487223299</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9670269665130586</v>
+        <v>0.9663899406824586</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9893789149338964</v>
+        <v>0.9892491091406086</v>
       </c>
     </row>
     <row r="15">
@@ -6815,19 +6815,19 @@
         <v>8225</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4212</v>
+        <v>3930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16324</v>
+        <v>15671</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03200496445621976</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01638943791957073</v>
+        <v>0.01529290571927103</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06351844331041484</v>
+        <v>0.06097988026617486</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6836,19 +6836,19 @@
         <v>2930</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1049</v>
+        <v>1103</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6912</v>
+        <v>6289</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01911783508311181</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006845826696698057</v>
+        <v>0.00719998643458047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04510491600649984</v>
+        <v>0.04103585114734572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -6857,19 +6857,19 @@
         <v>11155</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6172</v>
+        <v>6457</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19222</v>
+        <v>19487</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02719091169737706</v>
+        <v>0.02719091169737707</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0150449617869857</v>
+        <v>0.01574011850293058</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04685639689995881</v>
+        <v>0.04750104889342635</v>
       </c>
     </row>
     <row r="17">
@@ -6886,19 +6886,19 @@
         <v>248769</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>240670</v>
+        <v>241323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>252782</v>
+        <v>253064</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9679950355437802</v>
+        <v>0.9679950355437801</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9364815566895851</v>
+        <v>0.9390201197338254</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9836105620804291</v>
+        <v>0.984707094280729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -6907,19 +6907,19 @@
         <v>150318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>146336</v>
+        <v>146959</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152199</v>
+        <v>152145</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.980882164916888</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9548950839934994</v>
+        <v>0.9589641488526544</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9931541733033018</v>
+        <v>0.9928000135654195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>437</v>
@@ -6928,19 +6928,19 @@
         <v>399087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391020</v>
+        <v>390755</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404070</v>
+        <v>403785</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9728090883026228</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9531436031000414</v>
+        <v>0.9524989511065737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9849550382130146</v>
+        <v>0.9842598814970696</v>
       </c>
     </row>
     <row r="18">
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01758503354373064</v>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11201</v>
+        <v>11242</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01047514821680705</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05275629413493441</v>
+        <v>0.05294834056111963</v>
       </c>
     </row>
     <row r="20">
@@ -7108,16 +7108,16 @@
         <v>124247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116368</v>
+        <v>115401</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>126471</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9824149664562694</v>
+        <v>0.9824149664562692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.920116078439642</v>
+        <v>0.912466621481074</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -7129,16 +7129,16 @@
         <v>210088</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>201111</v>
+        <v>201070</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>212312</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9895248517831928</v>
+        <v>0.9895248517831927</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9472437058650656</v>
+        <v>0.9470516594388799</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -7233,19 +7233,19 @@
         <v>35492</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24403</v>
+        <v>23810</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53465</v>
+        <v>50265</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02162912285836333</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01487143331404998</v>
+        <v>0.01451020106865475</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03258217640733215</v>
+        <v>0.03063226848687416</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -7254,19 +7254,19 @@
         <v>15453</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9161</v>
+        <v>8814</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25733</v>
+        <v>25211</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01764669996058333</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01046133629368031</v>
+        <v>0.01006527443290267</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02938595491573283</v>
+        <v>0.02879018414952378</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -7275,19 +7275,19 @@
         <v>50945</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38572</v>
+        <v>37283</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69078</v>
+        <v>68081</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02024338635578997</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01532710804745388</v>
+        <v>0.01481494700654035</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02744869505613597</v>
+        <v>0.02705270385532524</v>
       </c>
     </row>
     <row r="23">
@@ -7304,19 +7304,19 @@
         <v>1605429</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1587456</v>
+        <v>1590656</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1616518</v>
+        <v>1617111</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9783708771416366</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.967417823592668</v>
+        <v>0.9693677315131258</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9851285666859501</v>
+        <v>0.9854897989313454</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1158</v>
@@ -7325,19 +7325,19 @@
         <v>860234</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>849954</v>
+        <v>850476</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>866526</v>
+        <v>866873</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9823533000394166</v>
+        <v>0.9823533000394167</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9706140450842673</v>
+        <v>0.9712098158504763</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9895386637063198</v>
+        <v>0.9899347255670973</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2680</v>
@@ -7346,19 +7346,19 @@
         <v>2465663</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2447530</v>
+        <v>2448527</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2478036</v>
+        <v>2479325</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.97975661364421</v>
+        <v>0.9797566136442101</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.972551304943864</v>
+        <v>0.9729472961446752</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9846728919525461</v>
+        <v>0.9851850529934595</v>
       </c>
     </row>
     <row r="24">
